--- a/data/metadata/Informe-05-0709-070908-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-05-0709-070908-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>n-accidentes</t>
   </si>
@@ -52,7 +52,7 @@
     <t>iaest-measure:n-accidentes</t>
   </si>
   <si>
-    <t>iaest-dimension:temporalidad</t>
+    <t>iaest-measure:temporalidad</t>
   </si>
   <si>
     <t>null</t>
@@ -61,7 +61,7 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-dimension:grupo-antiguedad</t>
+    <t>iaest-measure:grupo-antiguedad</t>
   </si>
   <si>
     <t>iaest-measure:municipio</t>
@@ -70,6 +70,9 @@
     <t>iaest-measure:orden</t>
   </si>
   <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -85,19 +88,10 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-temporalidad.xlsx</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-grupo-antiguedad.xlsx</t>
   </si>
 </sst>
 </file>
@@ -230,12 +224,12 @@
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -244,7 +238,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
@@ -253,13 +247,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -268,12 +262,12 @@
         <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -282,7 +276,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -291,33 +285,27 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-0709-070908-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-05-0709-070908-A-TC-TM-TP.xlsx
@@ -11,84 +11,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
-  <si>
-    <t>n-accidentes</t>
-  </si>
-  <si>
-    <t>temporalidad</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>grupo-antiguedad</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio</t>
-  </si>
-  <si>
-    <t>direccion-provincial-codigo</t>
-  </si>
-  <si>
-    <t>orden</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>direccion-provincial-nombre</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Dirección Provincial Nombre</t>
+  </si>
+  <si>
+    <t>Comarca Código</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>CCAA Código</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nº Accidentes</t>
+  </si>
+  <si>
+    <t>Dirección Provincial Código</t>
+  </si>
+  <si>
+    <t>Grupo Antigüedad</t>
+  </si>
+  <si>
+    <t>Temporalidad</t>
+  </si>
+  <si>
+    <t>Comarca Nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>iaest-measure:municipio</t>
+  </si>
+  <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:orden</t>
   </si>
   <si>
     <t>iaest-measure:n-accidentes</t>
   </si>
   <si>
+    <t>iaest-measure:grupo-antiguedad</t>
+  </si>
+  <si>
     <t>iaest-measure:temporalidad</t>
   </si>
   <si>
-    <t>null</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:grupo-antiguedad</t>
-  </si>
-  <si>
-    <t>iaest-measure:municipio</t>
-  </si>
-  <si>
-    <t>iaest-measure:orden</t>
-  </si>
-  <si>
-    <t>iaest-measure:direccion-provincial-nombre</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -203,22 +206,22 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
@@ -238,28 +241,28 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>22</v>
@@ -279,13 +282,13 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
@@ -294,18 +297,18 @@
         <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="1" t="s">
-        <v>26</v>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
